--- a/biology/Zoologie/Balyk/Balyk.xlsx
+++ b/biology/Zoologie/Balyk/Balyk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 balyk, sur le Wiktionnaire
-Balyk (en russe : балык) est le nom donné aux dos de poisson, salés et séchés[1].
+Balyk (en russe : балык) est le nom donné aux dos de poisson, salés et séchés.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En turc, le mot signifie « poisson » (balık)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En turc, le mot signifie « poisson » (balık).
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Poissons utilisés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On utilise principalement de l'esturgeon ou du saumon pour le fabriquer.
 Traditionnellement, le balyk d'esturgeon est plus recherché par les gourmets pour sa finesse. Néanmoins, sa chair est plus sensible à la prolifération de la bactérie Clostridium botulinum.
